--- a/results/Benchmarks.xlsx
+++ b/results/Benchmarks.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">parallelism</t>
   </si>
@@ -30,6 +30,9 @@
   <si>
     <t xml:space="preserve">false sharing</t>
   </si>
+  <si>
+    <t xml:space="preserve">false sharing atomic</t>
+  </si>
 </sst>
 </file>
 
@@ -38,11 +41,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -58,6 +62,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,8 +111,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -161,7 +174,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFD320"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF666699"/>
@@ -179,23 +192,22 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$B$1</c:f>
+              <c:f>Sheet1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -208,11 +220,22 @@
             <a:solidFill>
               <a:srgbClr val="004586"/>
             </a:solidFill>
-            <a:ln w="0">
-              <a:noFill/>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
           <c:dLbls>
             <c:txPr>
               <a:bodyPr wrap="none"/>
@@ -295,13 +318,14 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1:$C$1</c:f>
+              <c:f>Sheet1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -314,11 +338,22 @@
             <a:solidFill>
               <a:srgbClr val="ff420e"/>
             </a:solidFill>
-            <a:ln w="0">
-              <a:noFill/>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
           <c:dLbls>
             <c:txPr>
               <a:bodyPr wrap="none"/>
@@ -401,14 +436,139 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="63887550"/>
-        <c:axId val="84009697"/>
-      </c:barChart>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>false sharing atomic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1362</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2085</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2730</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3487</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4179</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4915</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5708</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6391</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7116</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7905</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8685</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9454</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10255</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10785</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11383</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="61014078"/>
+        <c:axId val="34295923"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="63887550"/>
+        <c:axId val="61014078"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -436,7 +596,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84009697"/>
+        <c:crossAx val="34295923"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -444,7 +604,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84009697"/>
+        <c:axId val="34295923"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -481,9 +641,9 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63887550"/>
+        <c:crossAx val="61014078"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -533,16 +693,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>761040</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>28440</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>163800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>690840</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>459360</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>105480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -550,8 +710,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3199320" y="191160"/>
-        <a:ext cx="9683640" cy="5446800"/>
+        <a:off x="5862240" y="399600"/>
+        <a:ext cx="8436240" cy="4745160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -569,199 +729,250 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>634</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>634</v>
       </c>
+      <c r="D2" s="0" t="n">
+        <v>321</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>641</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>773</v>
       </c>
+      <c r="D3" s="0" t="n">
+        <v>1362</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>650</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>1024</v>
       </c>
+      <c r="D4" s="0" t="n">
+        <v>2085</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>653</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>1278</v>
       </c>
+      <c r="D5" s="0" t="n">
+        <v>2730</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>658</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>1493</v>
       </c>
+      <c r="D6" s="0" t="n">
+        <v>3487</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>760</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>1718</v>
       </c>
+      <c r="D7" s="0" t="n">
+        <v>4179</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>1047</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>1915</v>
       </c>
+      <c r="D8" s="0" t="n">
+        <v>4915</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>1273</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>2137</v>
       </c>
+      <c r="D9" s="0" t="n">
+        <v>5708</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>1257</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>2303</v>
       </c>
+      <c r="D10" s="0" t="n">
+        <v>6391</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>1314</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>2550</v>
       </c>
+      <c r="D11" s="0" t="n">
+        <v>7116</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>1344</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>2719</v>
       </c>
+      <c r="D12" s="0" t="n">
+        <v>7905</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>1550</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>2895</v>
       </c>
+      <c r="D13" s="0" t="n">
+        <v>8685</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>1627</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>3160</v>
       </c>
+      <c r="D14" s="0" t="n">
+        <v>9454</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>1643</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>3392</v>
       </c>
+      <c r="D15" s="0" t="n">
+        <v>10255</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>1727</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>3630</v>
       </c>
+      <c r="D16" s="0" t="n">
+        <v>10785</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>1909</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>3882</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>11383</v>
       </c>
     </row>
   </sheetData>

--- a/results/Benchmarks.xlsx
+++ b/results/Benchmarks.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="benchmarks" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">parallelism</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t xml:space="preserve">false sharing atomic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matrix size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">direct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transposed</t>
   </si>
 </sst>
 </file>
@@ -192,7 +201,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -207,7 +216,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>benchmarks!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -263,7 +272,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$17</c:f>
+              <c:f>benchmarks!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -325,7 +334,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>benchmarks!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -381,7 +390,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$17</c:f>
+              <c:f>benchmarks!$C$2:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -443,7 +452,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>benchmarks!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -499,7 +508,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$17</c:f>
+              <c:f>benchmarks!$D$2:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -564,11 +573,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="61014078"/>
-        <c:axId val="34295923"/>
+        <c:axId val="99321110"/>
+        <c:axId val="85026599"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61014078"/>
+        <c:axId val="99321110"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -596,7 +605,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34295923"/>
+        <c:crossAx val="85026599"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -604,7 +613,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="34295923"/>
+        <c:axId val="85026599"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -641,7 +650,332 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61014078"/>
+        <c:crossAx val="99321110"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmarks!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>direct</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmarks!$B$24:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1505</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3608</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7488</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14585</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23720</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmarks!$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>transposed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmarks!$C$24:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1477</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7467</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13836</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23592</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="11995940"/>
+        <c:axId val="14950899"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="11995940"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="14950899"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="14950899"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="11995940"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -694,15 +1028,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>163800</xdr:colOff>
+      <xdr:colOff>271800</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:rowOff>31680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>459360</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>105480</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>431640</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>105120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -710,12 +1044,42 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5862240" y="399600"/>
-        <a:ext cx="8436240" cy="4745160"/>
+        <a:off x="5970240" y="356760"/>
+        <a:ext cx="5044320" cy="2837160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>203040</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>131400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>264240</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>119880</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4273560" y="3545280"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -729,10 +1093,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -973,6 +1337,94 @@
       </c>
       <c r="D17" s="0" t="n">
         <v>11383</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>476</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>1505</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>3608</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>7488</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>7467</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>14585</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>13836</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>23720</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>23592</v>
       </c>
     </row>
   </sheetData>

--- a/results/Benchmarks.xlsx
+++ b/results/Benchmarks.xlsx
@@ -201,7 +201,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -573,11 +573,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="99321110"/>
-        <c:axId val="85026599"/>
+        <c:axId val="71456250"/>
+        <c:axId val="85616181"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99321110"/>
+        <c:axId val="71456250"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -605,7 +605,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85026599"/>
+        <c:crossAx val="85616181"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -613,7 +613,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85026599"/>
+        <c:axId val="85616181"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -650,7 +650,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99321110"/>
+        <c:crossAx val="71456250"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -698,7 +698,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -769,30 +769,36 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>benchmarks!$B$24:$B$30</c:f>
+              <c:f>benchmarks!$B$24:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>104</c:v>
+                  <c:v>669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>476</c:v>
+                  <c:v>807</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1505</c:v>
+                  <c:v>1357</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3608</c:v>
+                  <c:v>1788</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7488</c:v>
+                  <c:v>3104</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14585</c:v>
+                  <c:v>4117</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23720</c:v>
+                  <c:v>6722</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9235</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -860,30 +866,36 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>benchmarks!$C$24:$C$30</c:f>
+              <c:f>benchmarks!$C$24:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>110</c:v>
+                  <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>468</c:v>
+                  <c:v>478</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1477</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3600</c:v>
+                  <c:v>1033</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7467</c:v>
+                  <c:v>1348</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13836</c:v>
+                  <c:v>1755</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23592</c:v>
+                  <c:v>2279</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2838</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -898,11 +910,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="11995940"/>
-        <c:axId val="14950899"/>
+        <c:axId val="15623128"/>
+        <c:axId val="41125205"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="11995940"/>
+        <c:axId val="15623128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -930,7 +942,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14950899"/>
+        <c:crossAx val="41125205"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -938,7 +950,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="14950899"/>
+        <c:axId val="41125205"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -975,7 +987,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11995940"/>
+        <c:crossAx val="15623128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1027,16 +1039,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>271800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>31680</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>755280</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>431640</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>105120</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>735480</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1044,8 +1056,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5970240" y="356760"/>
-        <a:ext cx="5044320" cy="2837160"/>
+        <a:off x="4825800" y="114840"/>
+        <a:ext cx="5678640" cy="3193920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1057,16 +1069,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>203040</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>131400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>801360</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>102960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>264240</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>119880</xdr:rowOff>
+      <xdr:colOff>48240</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1074,7 +1086,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4273560" y="3545280"/>
+        <a:off x="4057560" y="3679200"/>
         <a:ext cx="5759640" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
@@ -1093,7 +1105,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1352,79 +1364,101 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>104</v>
+        <v>669</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>110</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>476</v>
+        <v>807</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>468</v>
+        <v>478</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>1505</v>
+        <v>1357</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>1477</v>
+        <v>700</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>3608</v>
+        <v>1788</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>3600</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>7488</v>
+        <v>3104</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>7467</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>14585</v>
+        <v>4117</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>13836</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>23720</v>
+        <v>6722</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>23592</v>
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>9235</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>14018</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>3431</v>
       </c>
     </row>
   </sheetData>
